--- a/tf-idf.xlsx
+++ b/tf-idf.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHANH-PC\Desktop\CBD\hand\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHANH-PC\Desktop\CBD\hand\Untitled Folder\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="2592" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>word</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>word count sentence 3</t>
+  </si>
+  <si>
+    <t>laughed so hard.</t>
+  </si>
+  <si>
+    <t>1.The best Monty Python sketch is the one about the dead parrot, I</t>
+  </si>
+  <si>
+    <t>funny, funny, funny, the best!</t>
+  </si>
+  <si>
+    <t>3. Chocolate is the best ice cream dessert topping, with a great taste.</t>
+  </si>
+  <si>
+    <t>2. I laugh when I think about Python's Ministry of Silly Walks sketch, it is</t>
   </si>
 </sst>
 </file>
@@ -518,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,337 +553,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1.09861228866811</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1.09861228866811</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1.09861228866811</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1.09861228866811</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G6">
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="H6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="M6">
-        <v>0.40546510810816438</v>
-      </c>
-      <c r="N6">
-        <v>2.5341569256760271E-2</v>
-      </c>
-      <c r="O6">
-        <v>2.1340268847798129E-2</v>
-      </c>
-      <c r="P6">
-        <v>3.3788759009013687E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1.09861228866811</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G8">
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="H8">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="M8">
-        <v>1.09861228866811</v>
-      </c>
-      <c r="N8">
-        <v>6.8663268041756861E-2</v>
-      </c>
-      <c r="O8">
-        <v>5.7821699403584732E-2</v>
-      </c>
-      <c r="P8">
-        <v>9.1551024055675806E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -882,10 +656,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -920,19 +694,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -958,19 +732,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -996,16 +770,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1020,33 +794,33 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M13">
-        <v>1.09861228866811</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="N13">
-        <v>6.8663268041756861E-2</v>
+        <v>2.5341569256760271E-2</v>
       </c>
       <c r="O13">
-        <v>5.7821699403584732E-2</v>
+        <v>2.1340268847798129E-2</v>
       </c>
       <c r="P13">
-        <v>9.1551024055675806E-2</v>
+        <v>3.3788759009013687E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1072,48 +846,48 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G15">
-        <v>0.10526315789473679</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H15">
-        <v>0.16666666666666671</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.8663268041756861E-2</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5.7821699403584732E-2</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>9.1551024055675806E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1122,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>6.25E-2</v>
@@ -1134,83 +908,83 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M16">
-        <v>0.40546510810816438</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.5341569256760271E-2</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.1340268847798129E-2</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>3.3788759009013687E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1.09861228866811</v>
       </c>
       <c r="N17">
-        <v>6.8663268041756861E-2</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>5.7821699403584732E-2</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>9.1551024055675806E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1224,145 +998,145 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>1.09861228866811</v>
       </c>
       <c r="N19">
-        <v>6.8663268041756861E-2</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>5.7821699403584732E-2</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>9.1551024055675806E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M20">
         <v>1.09861228866811</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.8663268041756861E-2</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>5.7821699403584732E-2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.1551024055675806E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.40546510810816438</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="N21">
-        <v>2.5341569256760271E-2</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.1340268847798129E-2</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>3.3788759009013687E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.10526315789473679</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="M22">
-        <v>1.09861228866811</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1376,16 +1150,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1400,30 +1174,30 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M23">
-        <v>1.09861228866811</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="N23">
-        <v>6.8663268041756861E-2</v>
+        <v>2.5341569256760271E-2</v>
       </c>
       <c r="O23">
-        <v>5.7821699403584732E-2</v>
+        <v>2.1340268847798129E-2</v>
       </c>
       <c r="P23">
-        <v>9.1551024055675806E-2</v>
+        <v>3.3788759009013687E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1438,45 +1212,45 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M24">
-        <v>0.40546510810816438</v>
+        <v>1.09861228866811</v>
       </c>
       <c r="N24">
-        <v>2.5341569256760271E-2</v>
+        <v>6.8663268041756861E-2</v>
       </c>
       <c r="O24">
-        <v>2.1340268847798129E-2</v>
+        <v>5.7821699403584732E-2</v>
       </c>
       <c r="P24">
-        <v>3.3788759009013687E-2</v>
+        <v>9.1551024055675806E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M25">
-        <v>1.09861228866811</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1490,57 +1264,57 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M26">
         <v>1.09861228866811</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>6.8663268041756861E-2</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>5.7821699403584732E-2</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>9.1551024055675806E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1566,48 +1340,48 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M28">
-        <v>1.09861228866811</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2.5341569256760271E-2</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>2.1340268847798129E-2</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>3.3788759009013687E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1642,191 +1416,457 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M30">
         <v>1.09861228866811</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>6.8663268041756861E-2</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>5.7821699403584732E-2</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>9.1551024055675806E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M31">
-        <v>1.09861228866811</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2.5341569256760271E-2</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>2.1340268847798129E-2</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>3.3788759009013687E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>1.09861228866811</v>
       </c>
       <c r="N32">
-        <v>6.8663268041756861E-2</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>5.7821699403584732E-2</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>9.1551024055675806E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>1.09861228866811</v>
       </c>
       <c r="N33">
-        <v>6.8663268041756861E-2</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>5.7821699403584732E-2</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>9.1551024055675806E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G39">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="H39">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M39">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N39">
+        <v>6.8663268041756861E-2</v>
+      </c>
+      <c r="O39">
+        <v>5.7821699403584732E-2</v>
+      </c>
+      <c r="P39">
+        <v>9.1551024055675806E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G40">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="H40">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M40">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N40">
+        <v>6.8663268041756861E-2</v>
+      </c>
+      <c r="O40">
+        <v>5.7821699403584732E-2</v>
+      </c>
+      <c r="P40">
+        <v>9.1551024055675806E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>6.25E-2</v>
       </c>
-      <c r="G34">
+      <c r="G41">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="H34">
+      <c r="H41">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M34">
-        <v>1.09861228866811</v>
-      </c>
-      <c r="N34">
+      <c r="M41">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="N41">
         <v>6.8663268041756861E-2</v>
       </c>
-      <c r="O34">
+      <c r="O41">
         <v>5.7821699403584732E-2</v>
       </c>
-      <c r="P34">
+      <c r="P41">
         <v>9.1551024055675806E-2</v>
       </c>
     </row>
